--- a/8.1.activationFunction.xlsx
+++ b/8.1.activationFunction.xlsx
@@ -1,13 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ML-Study\Notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B591947A-3E3D-4DD0-AC60-F33E3E5B6DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="755" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pytorch-Softmax" sheetId="1" r:id="rId1"/>
+    <sheet name="Pytorch-Sigmoid" sheetId="3" r:id="rId2"/>
+    <sheet name="Pytorch-TanH" sheetId="4" r:id="rId3"/>
+    <sheet name="Pytorch-ReLU" sheetId="5" r:id="rId4"/>
+    <sheet name="Pytorch-LeakyReLU" sheetId="6" r:id="rId5"/>
+    <sheet name="use" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +29,3054 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+  <si>
+    <t># output = w*x + b</t>
+  </si>
+  <si>
+    <t># output = activation_function(output)</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>functional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tensor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <t># sofmax</t>
+  </si>
+  <si>
+    <r>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>softmax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Softmax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"># sigmoid </t>
+  </si>
+  <si>
+    <r>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sigmoid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Sigmoid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>#tanh</t>
+  </si>
+  <si>
+    <r>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tanh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Tanh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># relu</t>
+  </si>
+  <si>
+    <r>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>relu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>relu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ReLU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>relu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># leaky relu</t>
+  </si>
+  <si>
+    <r>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>leaky_relu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>lrelu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LeakyReLU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lrelu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>#nn.ReLU() creates an nn.Module which you can add e.g. to an nn.Sequential model.</t>
+  </si>
+  <si>
+    <t>#torch.relu on the other side is just the functional API call to the relu function,</t>
+  </si>
+  <si>
+    <t>#so that you can add it e.g. in your forward method yourself.</t>
+  </si>
+  <si>
+    <t># option 1 (create nn modules)</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NeuralNet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>__init__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>hidden_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NeuralNet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>__init__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>linear1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Linear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>input_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>hidden_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>relu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ReLU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>linear2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Linear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>hidden_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sigmoid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Sigmoid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>forward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>linear1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>relu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>linear2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sigmoid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+  </si>
+  <si>
+    <t># option 2 (use activation functions directly in forward pass)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>relu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>linear1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>torch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sigmoid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>linear2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +3084,88 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,12 +3173,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +3265,251 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5800725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>532798</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C31B8F9D-5098-A28E-C7F1-383EE8635309}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6410325" y="95250"/>
+          <a:ext cx="4819048" cy="3504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6724650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523370</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>56705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE546FDD-B942-01E7-41D4-F2F7C6EF5E78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334250" y="304800"/>
+          <a:ext cx="4038095" cy="3561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5514975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>332899</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3029455A-80B7-6391-3187-DBE673BAADE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6124575" y="9525"/>
+          <a:ext cx="3809524" cy="3523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6362700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>237575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>151948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AB8732-2579-3362-2FE6-777584A42A32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6972300" y="161925"/>
+          <a:ext cx="4400000" cy="3619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7000875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>494702</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D0A47BA-0822-AEC4-3936-64FFACB2BA0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="123825"/>
+          <a:ext cx="4780952" cy="3485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +3774,612 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" activeCellId="1" sqref="A10 C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="105.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9861D41E-348C-49E1-B622-5C2FB796D1C0}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="117" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1F3DC2-A19B-4FA7-8A22-9E79345207B1}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="116.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6A9982-30DF-4223-8628-95B85BACC2B1}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="112.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52474A1-9072-4D36-8C30-633E112B2A57}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="123.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56813A52-BB72-4A6D-A5FF-F4D0BC27D884}">
+  <dimension ref="B1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="116" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>